--- a/API Limit Tracking.xlsx
+++ b/API Limit Tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/augustingoudet/Desktop/FS_Projects/Investment-Overwatch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F2FA02-C002-9F4F-88FE-14B326ACAF4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372181C7-E0B6-4B4D-8757-3234E9BA46FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14740" xr2:uid="{0EA20578-1C7B-6E49-AE33-14275895D28B}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{0EA20578-1C7B-6E49-AE33-14275895D28B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -439,7 +439,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:D8"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -480,13 +480,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="C3">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="D3">
-        <v>18000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -509,15 +509,15 @@
       </c>
       <c r="B5" s="2">
         <f>B3/B4</f>
-        <v>400</v>
+        <v>222.22222222222223</v>
       </c>
       <c r="C5" s="2">
         <f>C3/C4</f>
-        <v>1000</v>
+        <v>555.55555555555554</v>
       </c>
       <c r="D5" s="2">
         <f>D3/D4</f>
-        <v>1000</v>
+        <v>555.55555555555554</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -526,15 +526,15 @@
       </c>
       <c r="B6" s="2">
         <f>B5/60</f>
-        <v>6.666666666666667</v>
+        <v>3.7037037037037037</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" ref="C6:D6" si="0">C5/60</f>
-        <v>16.666666666666668</v>
+        <v>9.2592592592592595</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="0"/>
-        <v>16.666666666666668</v>
+        <v>9.2592592592592595</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -557,15 +557,15 @@
       </c>
       <c r="B8" s="4">
         <f>B7*B6</f>
-        <v>20</v>
+        <v>11.111111111111111</v>
       </c>
       <c r="C8" s="4">
         <f>C7*C6</f>
-        <v>33.333333333333336</v>
+        <v>18.518518518518519</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ref="D8" si="1">D7*D6</f>
-        <v>33.333333333333336</v>
+        <v>18.518518518518519</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -574,15 +574,15 @@
       </c>
       <c r="B9" s="2">
         <f>B8/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.46296296296296297</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" ref="C9:D9" si="2">C8/24</f>
-        <v>1.3888888888888891</v>
+        <v>0.77160493827160492</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="2"/>
-        <v>1.3888888888888891</v>
+        <v>0.77160493827160492</v>
       </c>
     </row>
   </sheetData>

--- a/API Limit Tracking.xlsx
+++ b/API Limit Tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/augustingoudet/Desktop/FS_Projects/Investment-Overwatch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372181C7-E0B6-4B4D-8757-3234E9BA46FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7386B7-365F-A349-98C4-45DDB45B9EF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{0EA20578-1C7B-6E49-AE33-14275895D28B}"/>
   </bookViews>
@@ -439,7 +439,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
